--- a/example_data/paper_epo_2/output_data/linear_str.xlsx
+++ b/example_data/paper_epo_2/output_data/linear_str.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/PycharmProjects/GlyCompare/example_data/paper_epo_2/output_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAB2F7E9-3B6F-B148-8DD9-627F3E75623C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6172F568-DDC6-7A47-B9CF-01DB8517BD6F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="900" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>id</t>
   </si>
@@ -560,13 +560,19 @@
   </si>
   <si>
     <t>Ma3(Ma6Ma6)Mb4GNb4GN;Asn</t>
+  </si>
+  <si>
+    <t>xx</t>
+  </si>
+  <si>
+    <t>Ab4GNb3Ab4GNb3Ab4GNb2Ma3(Ab4GNb3Ab4GNb3Ab4GNb2Ma6)Mb4GNb4(Fa6)GN;Asn</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -582,6 +588,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF263238"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -591,7 +603,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -614,15 +626,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -961,10 +988,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C91"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="H92" sqref="H92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1956,6 +1983,17 @@
         <v>178</v>
       </c>
     </row>
+    <row r="91" spans="1:3" ht="17" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>180</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
